--- a/Data 1.xlsx
+++ b/Data 1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TC</t>
   </si>
@@ -32,13 +32,19 @@
   </si>
   <si>
     <t>TC02 - AU Sender</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC03 - EU Sender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -49,6 +55,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,12 +75,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,7 +338,18 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>1.9747267459E10</v>
+        <v>2.032236488E10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.0556453482E10</v>
       </c>
     </row>
   </sheetData>
